--- a/biology/Botanique/Pereskia/Pereskia.xlsx
+++ b/biology/Botanique/Pereskia/Pereskia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pereskia est un genre de cactus.
 Ce genre est composé d'une dizaine d'espèces arbustives ou buissonnantes, croissant dans les zones tropicales d'Amérique. La floraison se produit durant la saison humide. Ce genre a la particularité rare chez les cactacées de porter des feuilles apparentes.
-Ce genre a été nommé par le Père Charles Plumier, religieux de l'ordre des Minimes, en hommage à l’astronome français Nicolas-Claude Fabri de Peiresc, lors de la première description de Pereskia aculeata en 1703 dans son ouvrage "Nova Plantarum Americanarum Genera", page 35 [2].
+Ce genre a été nommé par le Père Charles Plumier, religieux de l'ordre des Minimes, en hommage à l’astronome français Nicolas-Claude Fabri de Peiresc, lors de la première description de Pereskia aculeata en 1703 dans son ouvrage "Nova Plantarum Americanarum Genera", page 35 .
 Les règles internationales de la taxonomie fixant comme point de départ de la reconnaissance des descriptions botaniques l’invention de la taxonomie binomiale par Linné le nom de Plumier ne figure pas comme auteur initial.
 De ce fait, l'auteur officiel du genre en est Philip Miller qui en fera une description de reprise dans la 4e édition de "The Gardeners Dictionary" en 1754.
-Les noms de 11 espèces sont acceptés officiellement selon "The Plant List"[3], fruit du travail de rationalisation effectué conjointement par les Jardins botaniques royaux de Kew  et le Jardin botanique du Missouri.
+Les noms de 11 espèces sont acceptés officiellement selon "The Plant List", fruit du travail de rationalisation effectué conjointement par les Jardins botaniques royaux de Kew  et le Jardin botanique du Missouri.
 </t>
         </is>
       </c>
@@ -516,9 +528,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon "The Plant List"[3] 23 avril 2012
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon "The Plant List" 23 avril 2012
 Pereskia aculeata P. Miller 1768
 Pereskia bleo (Kunth) DC. 1828
 Pereskia grandifolia Haworth 1819
@@ -559,9 +573,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon "The Plant List"[3] 23 avril 2012
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon "The Plant List" 23 avril 2012
 Pereskia acardia Parm. ex Pfeiff. Non résolu
 Pereskia aculeata var. godseffiana (hort.) F.M. Knuth . = Pereskia aculeata P. Miller
 Pereskia aculeata var. lanceolata Pfeiff. . = Pereskia aculeata P. Miller
@@ -663,7 +679,9 @@
           <t>Quelques espèces en photo</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Pereskia aculeata
